--- a/code/notebooks/sortie_jalon3.xlsx
+++ b/code/notebooks/sortie_jalon3.xlsx
@@ -14611,7 +14611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14667,462 +14667,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>17/08/2022</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>18/08/2022</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>19/08/2022</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>20/08/2022</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>21/08/2022</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>22/08/2022</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>23/08/2022</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>24/08/2022</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>25/08/2022</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>26/08/2022</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>27/08/2022</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>28/08/2022</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>29/08/2022</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>30/08/2022</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>31/08/2022</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>01/09/2022</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>02/09/2022</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>03/09/2022</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>04/09/2022</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>05/09/2022</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>06/09/2022</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>07/09/2022</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>08/09/2022</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>09/09/2022</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>10/09/2022</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>11/09/2022</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>12/09/2022</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>13/09/2022</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>14/09/2022</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>15/09/2022</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>16/09/2022</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>17/09/2022</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>18/09/2022</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>19/09/2022</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>20/09/2022</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>21/09/2022</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>22/09/2022</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>23/09/2022</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>24/09/2022</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>25/09/2022</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>26/09/2022</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>27/09/2022</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>28/09/2022</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>29/09/2022</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>02/10/2022</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>03/10/2022</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>04/10/2022</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>05/10/2022</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>06/10/2022</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>08/10/2022</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>09/10/2022</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>10/10/2022</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>11/10/2022</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>12/10/2022</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>13/10/2022</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>15/10/2022</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>16/10/2022</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>17/10/2022</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>18/10/2022</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>19/10/2022</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>20/10/2022</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>21/10/2022</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>22/10/2022</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>23/10/2022</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>24/10/2022</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>25/10/2022</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>26/10/2022</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>27/10/2022</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>28/10/2022</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>29/10/2022</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>30/10/2022</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>31/10/2022</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>01/11/2022</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>02/11/2022</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>03/11/2022</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>04/11/2022</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>05/11/2022</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>06/11/2022</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>07/11/2022</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>08/11/2022</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>09/11/2022</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>10/11/2022</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>11/11/2022</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>12/11/2022</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>13/11/2022</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>14/11/2022</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>15/11/2022</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -15157,280 +14702,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -15464,280 +14736,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -15771,280 +14770,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16078,280 +14804,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -16385,280 +14838,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/code/notebooks/sortie_jalon3.xlsx
+++ b/code/notebooks/sortie_jalon3.xlsx
@@ -2104,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D631"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10951,6 +10951,566 @@
         <v>0</v>
       </c>
       <c r="D631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44787.5625</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44787.57291666666</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44787.58333333334</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44787.59375</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44787.60416666666</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44787.61458333334</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44787.625</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44787.63541666666</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44787.64583333334</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44787.65625</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44787.66666666666</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44787.67708333334</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44787.6875</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44787.69791666666</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44787.70833333334</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44787.71875</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>44787.72916666666</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>44787.73958333334</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>44787.75</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>44787.76041666666</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>44787.77083333334</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>44787.78125</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>44787.79166666666</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>44787.80208333334</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44787.8125</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44787.82291666666</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44787.83333333334</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44787.84375</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44787.85416666666</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44787.86458333334</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44787.875</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>44787.88541666666</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>44787.89583333334</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>44787.90625</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>44787.91666666666</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>44787.92708333334</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>44787.9375</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>44787.94791666666</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>44787.95833333334</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>44787.96875</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0</v>
+      </c>
+      <c r="D671" t="n">
         <v>0</v>
       </c>
     </row>
